--- a/Input_files/Actual_testcases/Kaman/ALL_PAGES/END_TO_END/TC27_Verify_Store_room.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ALL_PAGES/END_TO_END/TC27_Verify_Store_room.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\ECTEST_Change_branch\Kaman_ECTEST_Sanity\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9788E0-93EE-48A5-8B9B-6A4ACDB7D58A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A5006F-D7A3-44F0-A544-77D860F214BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <t>ProductPLP</t>
   </si>
   <si>
-    <t>Logout</t>
-  </si>
-  <si>
     <t>SaveStorerooms</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>Test Message</t>
+  </si>
+  <si>
+    <t>Logout_RegisteredUser</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -625,7 +625,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -655,7 +655,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -685,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -750,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
@@ -803,10 +803,10 @@
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
@@ -822,7 +822,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -871,13 +871,13 @@
         <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -886,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
@@ -908,7 +908,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
@@ -921,13 +921,13 @@
         <v>10</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -936,7 +936,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
@@ -962,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>9</v>
@@ -1003,7 +1003,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1024,7 +1024,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
@@ -1040,10 +1040,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1080,10 +1080,10 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1092,21 +1092,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1303,24 +1288,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1337,4 +1320,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>